--- a/kobo_forms/photo_form.xlsx
+++ b/kobo_forms/photo_form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin and Hope\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeea2119f37a1e9/My Documents/Websites/mada_whale/kobo_forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E3ECFE-273B-486F-959B-6047D13FBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{99E3ECFE-273B-486F-959B-6047D13FBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08198D0-AC87-45E2-BA38-CCD25DE63007}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>type</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Please register it with ws.org and come up with a name before submitting this form</t>
+  </si>
+  <si>
+    <t>pic_repeat</t>
+  </si>
+  <si>
+    <t>new photo and ID?</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +585,12 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/kobo_forms/photo_form.xlsx
+++ b/kobo_forms/photo_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeea2119f37a1e9/My Documents/Websites/mada_whale/kobo_forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{99E3ECFE-273B-486F-959B-6047D13FBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08198D0-AC87-45E2-BA38-CCD25DE63007}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{99E3ECFE-273B-486F-959B-6047D13FBE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41CE2B43-E45E-442C-BC8A-231D1EC78540}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,24 @@
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>type</t>
   </si>
@@ -48,15 +60,6 @@
     <t>Enter shark *sighting* ID</t>
   </si>
   <si>
-    <t>Note: this is the riskiest part of the process. It's free form - lots of potential for this to go wrong...</t>
-  </si>
-  <si>
-    <t>Enter ws.org ID for this shark</t>
-  </si>
-  <si>
-    <t>Do we always have this? Even if the shark has never been seen before?</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -78,33 +81,15 @@
     <t>shark_sighting_id</t>
   </si>
   <si>
-    <t>ws_id</t>
-  </si>
-  <si>
     <t>photo</t>
   </si>
   <si>
-    <t>shark_name</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>select_one known</t>
-  </si>
-  <si>
     <t>begin repeat</t>
   </si>
   <si>
-    <t>known</t>
-  </si>
-  <si>
-    <t>Is this a known shark?</t>
-  </si>
-  <si>
-    <t>I.e. known to both ws.org and madawhalefoundation?</t>
-  </si>
-  <si>
     <t>relevant</t>
   </si>
   <si>
@@ -120,41 +105,80 @@
     <t>Non</t>
   </si>
   <si>
-    <t>${known}='yes'</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
-    <t>name_now</t>
-  </si>
-  <si>
-    <t>Enter MWF name</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
-    <t>Please register it with ws.org and come up with a name before submitting this form</t>
-  </si>
-  <si>
     <t>pic_repeat</t>
   </si>
   <si>
-    <t>new photo and ID?</t>
+    <t>known_mwf</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>${known_mwf}='yes'</t>
+  </si>
+  <si>
+    <t>new shark sighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This form links shark sightings with shark IDs. If you don't already have a shark ID, please load a photo to I3S before completing this form. </t>
+  </si>
+  <si>
+    <t>select_one known_mwf</t>
+  </si>
+  <si>
+    <t>Do you have a shark ID for this sighting?</t>
+  </si>
+  <si>
+    <t>shark_id</t>
+  </si>
+  <si>
+    <t>Enter I3S ID for this shark</t>
+  </si>
+  <si>
+    <t>id_not_known</t>
+  </si>
+  <si>
+    <t>Why do you not have an ID?</t>
+  </si>
+  <si>
+    <t>bad_picture</t>
+  </si>
+  <si>
+    <t>Bad picture</t>
+  </si>
+  <si>
+    <t>advice_needed</t>
+  </si>
+  <si>
+    <t>I need advice</t>
+  </si>
+  <si>
+    <t>${known_mwf}='no'</t>
+  </si>
+  <si>
+    <t>36 digit code, taken from  https://beresford.shinyapps.io/mada_whale/</t>
+  </si>
+  <si>
+    <t>I.e. The shark is already listed in 'known sharks' section of https://beresford.shinyapps.io/mada_whale/ or you have generated one on I3S</t>
+  </si>
+  <si>
+    <t>select_one id_not_known</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +193,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,9 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,52 +615,58 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,59 +674,51 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -698,14 +727,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -716,46 +745,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -773,18 +802,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
